--- a/data/case1/13/Plm2_14.xlsx
+++ b/data/case1/13/Plm2_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.16889011822826205</v>
+        <v>-0.14907911348512926</v>
       </c>
       <c r="B1" s="0">
-        <v>0.16815533552455975</v>
+        <v>0.14834444936677471</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.04105115108646018</v>
+        <v>-0.02576572683877032</v>
       </c>
       <c r="B2" s="0">
-        <v>0.039878869330664202</v>
+        <v>0.024446879909712393</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.084567046172068672</v>
+        <v>0.078490584482821646</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.085049652123299069</v>
+        <v>-0.079184709825096178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.198947340399382</v>
+        <v>-0.20480893633784092</v>
       </c>
       <c r="B4" s="0">
-        <v>0.19771048614212106</v>
+        <v>0.20328569544572872</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.19153903133764949</v>
+        <v>-0.19728569585396372</v>
       </c>
       <c r="B5" s="0">
-        <v>0.18857311847968727</v>
+        <v>0.19417992706687492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.087649263307347347</v>
+        <v>-0.093253386831670948</v>
       </c>
       <c r="B6" s="0">
-        <v>0.087534917940033985</v>
+        <v>0.093125183279025858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.067534918149213752</v>
+        <v>-0.073125183778573799</v>
       </c>
       <c r="B7" s="0">
-        <v>0.067279471649717593</v>
+        <v>0.072829357918768878</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.047279471860846023</v>
+        <v>-0.052829358422760819</v>
       </c>
       <c r="B8" s="0">
-        <v>0.047100256040716104</v>
+        <v>0.05260853092815676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.041100256219982256</v>
+        <v>-0.046608531365825989</v>
       </c>
       <c r="B9" s="0">
-        <v>0.040960944227891538</v>
+        <v>0.046432167603966512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.034960944409050398</v>
+        <v>-0.040432168046464767</v>
       </c>
       <c r="B10" s="0">
-        <v>0.034943514169889056</v>
+        <v>0.040410617554307748</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.030443514347588518</v>
+        <v>-0.035910617989429738</v>
       </c>
       <c r="B11" s="0">
-        <v>0.030417139848140096</v>
+        <v>0.035875320851776138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.02441714002984563</v>
+        <v>-0.029875321295653734</v>
       </c>
       <c r="B12" s="0">
-        <v>0.024350373099733869</v>
+        <v>0.029776684383030716</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.018350373283061217</v>
+        <v>-0.023776684831364747</v>
       </c>
       <c r="B13" s="0">
-        <v>0.018337122154744812</v>
+        <v>0.023754575152040047</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0063371223530728216</v>
+        <v>-0.011754575632372699</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0063353517074897781</v>
+        <v>0.011749235638448319</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00033535189141264965</v>
+        <v>-0.02105389400485258</v>
       </c>
       <c r="B15" s="0">
-        <v>0.00033468809095449359</v>
+        <v>0.021028120499693159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027951659279726</v>
+        <v>-0.01502812095115913</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004685389592431</v>
+        <v>0.015004549754051855</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090046855743999288</v>
+        <v>-0.0090045502074254102</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999998076644161</v>
+        <v>0.0089999995308014391</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.079418547653300919</v>
+        <v>-0.076485574154233404</v>
       </c>
       <c r="B18" s="0">
-        <v>0.079275820121591067</v>
+        <v>0.076347599939040833</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.070275820293442148</v>
+        <v>-0.067347600357219317</v>
       </c>
       <c r="B19" s="0">
-        <v>0.069146068983886533</v>
+        <v>0.066244097979569982</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.060146069160101234</v>
+        <v>-0.071929554227580184</v>
       </c>
       <c r="B20" s="0">
-        <v>0.059886694044421596</v>
+        <v>0.07168307808406027</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090044401802202856</v>
+        <v>-0.0090044233321906475</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999998226097944</v>
+        <v>0.0089999995692084944</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.11544591567520612</v>
+        <v>-0.093937464811579829</v>
       </c>
       <c r="B22" s="0">
-        <v>0.11493239810072353</v>
+        <v>0.093627675110530717</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.10593239827519874</v>
+        <v>-0.084627675532678026</v>
       </c>
       <c r="B23" s="0">
-        <v>0.10506088046380135</v>
+        <v>0.084125470669481395</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126561867564583</v>
+        <v>-0.042125471268317227</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999740014893</v>
+        <v>0.041999999398070642</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094923855346753072</v>
+        <v>-0.094926540661024461</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094678111851834501</v>
+        <v>0.094682068940464603</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088678112027007927</v>
+        <v>-0.088682069367717276</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088362537216717385</v>
+        <v>0.088367027369208984</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082362537392966839</v>
+        <v>-0.082367027798712744</v>
       </c>
       <c r="B27" s="0">
-        <v>0.08128740645807353</v>
+        <v>0.081289171513187597</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075287406638459231</v>
+        <v>-0.075289171952226397</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074542320114793448</v>
+        <v>0.074542339161467908</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062542320312504174</v>
+        <v>-0.062542339637863265</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062172301543782282</v>
+        <v>0.062171991708046548</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042172301762346098</v>
+        <v>-0.0421719922285404</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042020812001773322</v>
+        <v>0.042020196506194374</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027020812210180267</v>
+        <v>-0.027020197005354518</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027001024566306597</v>
+        <v>0.027000848573456082</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060010247896382651</v>
+        <v>-0.0060008491041090295</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999998130164656</v>
+        <v>0.0059999995462440836</v>
       </c>
     </row>
   </sheetData>
